--- a/phylogenetic_trees/diatoms_in_rbcl_data.xlsx
+++ b/phylogenetic_trees/diatoms_in_rbcl_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreajackman/R_Stuff/Parfrey/diatoms_new/tree_stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreajackman/R_Stuff/Parfrey/MH_diatoms_metadata_and_scripts/phylogenetic_trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBD27F17-F749-054C-8F9B-064361F241B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93668570-B5F4-7549-8C09-1327701BCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="520" windowWidth="50500" windowHeight="26200" xr2:uid="{C206F24F-8EB0-D545-A412-9410B7B21F6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{C206F24F-8EB0-D545-A412-9410B7B21F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="diatoms_in_rbcl_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="864">
   <si>
     <t>NCBI_Blast_best_match</t>
   </si>
@@ -2606,6 +2606,12 @@
   </si>
   <si>
     <t>Rhabdonematales</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -3476,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961DDB4B-F56D-7D42-87E8-851C13BB98A5}">
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:R322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="Q266" sqref="Q266"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="R321" sqref="R321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3487,7 +3493,7 @@
     <col min="16" max="16" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3536,8 +3542,11 @@
       <c r="Q1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3674,8 +3683,11 @@
       <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3719,7 +3731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -3763,7 +3775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3900,8 +3912,11 @@
       <c r="Q9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3950,8 +3965,11 @@
       <c r="Q10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4083,7 +4101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -4176,8 +4194,11 @@
       <c r="Q15" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -4265,7 +4286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -4353,7 +4374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -4397,7 +4418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -4441,7 +4462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4490,8 +4511,11 @@
       <c r="Q22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -4535,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -4579,7 +4603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -4628,8 +4652,11 @@
       <c r="Q25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -4678,8 +4705,11 @@
       <c r="Q26" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -4723,7 +4753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -4767,7 +4797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4811,7 +4841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -4855,7 +4885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -4899,7 +4929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -4943,7 +4973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -4987,7 +5017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -5036,8 +5066,11 @@
       <c r="Q34" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -5081,7 +5114,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -5125,7 +5158,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -5174,8 +5207,11 @@
       <c r="Q37" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -5225,7 +5261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -5269,7 +5305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -5318,8 +5354,11 @@
       <c r="Q40" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -5363,7 +5402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -5407,7 +5446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5457,7 +5496,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -5501,7 +5540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>157</v>
       </c>
@@ -5545,7 +5584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -5598,7 +5637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -5642,7 +5681,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5686,7 +5725,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -5736,7 +5775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -5780,7 +5819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -5824,7 +5863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -5868,7 +5907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -5912,7 +5951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -5956,7 +5995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -6000,7 +6039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>192</v>
       </c>
@@ -6049,8 +6088,11 @@
       <c r="Q56" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>195</v>
       </c>
@@ -6094,7 +6136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -6138,7 +6180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -6182,7 +6224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -6226,7 +6268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -6270,7 +6312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -6317,7 +6359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -6367,7 +6409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -6417,7 +6459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -6466,8 +6508,11 @@
       <c r="Q65" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -6511,7 +6556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>219</v>
       </c>
@@ -6555,7 +6600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -6605,7 +6650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>225</v>
       </c>
@@ -6649,7 +6694,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -6698,8 +6743,11 @@
       <c r="Q70" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -6743,7 +6791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>234</v>
       </c>
@@ -6787,7 +6835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>236</v>
       </c>
@@ -6831,7 +6879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>239</v>
       </c>
@@ -6880,8 +6928,11 @@
       <c r="Q74" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>242</v>
       </c>
@@ -6925,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>244</v>
       </c>
@@ -6971,8 +7022,11 @@
       <c r="Q76" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>246</v>
       </c>
@@ -7016,7 +7070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -7060,7 +7114,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>252</v>
       </c>
@@ -7104,7 +7158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -7148,7 +7202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>256</v>
       </c>
@@ -7192,7 +7246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>258</v>
       </c>
@@ -7236,7 +7290,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>265</v>
       </c>
@@ -7280,7 +7334,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>269</v>
       </c>
@@ -7329,8 +7383,11 @@
       <c r="Q84" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>273</v>
       </c>
@@ -7374,7 +7431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -7418,7 +7475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -7462,7 +7519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>282</v>
       </c>
@@ -7506,7 +7563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>284</v>
       </c>
@@ -7550,7 +7607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>286</v>
       </c>
@@ -7599,8 +7656,11 @@
       <c r="Q90" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -7644,7 +7704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>291</v>
       </c>
@@ -7694,7 +7754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -7738,7 +7798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>297</v>
       </c>
@@ -7782,7 +7842,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>299</v>
       </c>
@@ -7826,7 +7886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>301</v>
       </c>
@@ -7870,7 +7930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>303</v>
       </c>
@@ -7914,7 +7974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>305</v>
       </c>
@@ -7958,7 +8018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>307</v>
       </c>
@@ -8002,7 +8062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>310</v>
       </c>
@@ -8046,7 +8106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>312</v>
       </c>
@@ -8090,7 +8150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>314</v>
       </c>
@@ -8134,7 +8194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>317</v>
       </c>
@@ -8178,7 +8238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>320</v>
       </c>
@@ -8227,8 +8287,11 @@
       <c r="Q104" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>324</v>
       </c>
@@ -8278,7 +8341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>327</v>
       </c>
@@ -8322,7 +8385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>329</v>
       </c>
@@ -8366,7 +8429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -8410,7 +8473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -8454,7 +8517,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>337</v>
       </c>
@@ -8504,7 +8567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>340</v>
       </c>
@@ -8548,7 +8611,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>345</v>
       </c>
@@ -8592,7 +8655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>347</v>
       </c>
@@ -8636,7 +8699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -8686,7 +8749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>352</v>
       </c>
@@ -8730,7 +8793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>354</v>
       </c>
@@ -8774,7 +8837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>356</v>
       </c>
@@ -8818,7 +8881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>358</v>
       </c>
@@ -8862,7 +8925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -8906,7 +8969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>363</v>
       </c>
@@ -8950,7 +9013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>365</v>
       </c>
@@ -8994,7 +9057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>367</v>
       </c>
@@ -9038,7 +9101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>369</v>
       </c>
@@ -9091,7 +9154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -9135,7 +9198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -9184,8 +9247,11 @@
       <c r="Q125" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -9229,7 +9295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -9273,7 +9339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -9322,8 +9388,11 @@
       <c r="Q128" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>385</v>
       </c>
@@ -9367,7 +9436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>387</v>
       </c>
@@ -9411,7 +9480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>389</v>
       </c>
@@ -9461,7 +9530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>391</v>
       </c>
@@ -9511,7 +9580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>396</v>
       </c>
@@ -9560,8 +9629,11 @@
       <c r="Q133" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>400</v>
       </c>
@@ -9605,7 +9677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>402</v>
       </c>
@@ -9649,7 +9721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>404</v>
       </c>
@@ -9698,8 +9770,11 @@
       <c r="Q136" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -9743,7 +9818,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>412</v>
       </c>
@@ -9787,7 +9862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>414</v>
       </c>
@@ -9831,7 +9906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>418</v>
       </c>
@@ -9875,7 +9950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -9924,8 +9999,11 @@
       <c r="Q141" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>423</v>
       </c>
@@ -9969,7 +10047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -10013,7 +10091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>427</v>
       </c>
@@ -10063,7 +10141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>430</v>
       </c>
@@ -10107,7 +10185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>433</v>
       </c>
@@ -10156,8 +10234,11 @@
       <c r="Q146" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>435</v>
       </c>
@@ -10201,7 +10282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -10245,7 +10326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>440</v>
       </c>
@@ -10289,7 +10370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>442</v>
       </c>
@@ -10339,7 +10420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>444</v>
       </c>
@@ -10383,7 +10464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>446</v>
       </c>
@@ -10427,7 +10508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>448</v>
       </c>
@@ -10471,7 +10552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>450</v>
       </c>
@@ -10515,7 +10596,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>452</v>
       </c>
@@ -10559,7 +10640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -10608,8 +10689,11 @@
       <c r="Q156" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -10658,8 +10742,11 @@
       <c r="Q157" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>461</v>
       </c>
@@ -10712,7 +10799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>464</v>
       </c>
@@ -10762,7 +10849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>466</v>
       </c>
@@ -10806,7 +10893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>468</v>
       </c>
@@ -10855,8 +10942,11 @@
       <c r="Q161" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>471</v>
       </c>
@@ -10905,8 +10995,11 @@
       <c r="Q162" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>475</v>
       </c>
@@ -10959,7 +11052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>478</v>
       </c>
@@ -11003,7 +11096,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>481</v>
       </c>
@@ -11047,7 +11140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>483</v>
       </c>
@@ -11096,8 +11189,11 @@
       <c r="Q166" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>485</v>
       </c>
@@ -11147,7 +11243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>487</v>
       </c>
@@ -11197,7 +11293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>489</v>
       </c>
@@ -11241,7 +11337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>492</v>
       </c>
@@ -11285,7 +11381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>494</v>
       </c>
@@ -11329,7 +11425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>496</v>
       </c>
@@ -11373,7 +11469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>498</v>
       </c>
@@ -11417,7 +11513,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>500</v>
       </c>
@@ -11466,8 +11562,11 @@
       <c r="Q174" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>503</v>
       </c>
@@ -11511,7 +11610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>505</v>
       </c>
@@ -11555,7 +11654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>507</v>
       </c>
@@ -11599,7 +11698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>509</v>
       </c>
@@ -11643,7 +11742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>512</v>
       </c>
@@ -11687,7 +11786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>514</v>
       </c>
@@ -11736,8 +11835,11 @@
       <c r="Q180" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>517</v>
       </c>
@@ -11787,7 +11889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>519</v>
       </c>
@@ -11834,7 +11936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>521</v>
       </c>
@@ -11884,7 +11986,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>523</v>
       </c>
@@ -11930,8 +12032,11 @@
       <c r="Q184" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>525</v>
       </c>
@@ -11980,8 +12085,11 @@
       <c r="Q185" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>528</v>
       </c>
@@ -12025,7 +12133,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>530</v>
       </c>
@@ -12069,7 +12177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>532</v>
       </c>
@@ -12118,8 +12226,11 @@
       <c r="Q188" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>535</v>
       </c>
@@ -12163,7 +12274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>538</v>
       </c>
@@ -12216,7 +12327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>541</v>
       </c>
@@ -12260,7 +12371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>543</v>
       </c>
@@ -12304,7 +12415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>546</v>
       </c>
@@ -12354,7 +12465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>548</v>
       </c>
@@ -12404,7 +12515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>550</v>
       </c>
@@ -12454,7 +12565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>553</v>
       </c>
@@ -12498,7 +12609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>555</v>
       </c>
@@ -12542,7 +12653,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>557</v>
       </c>
@@ -12586,7 +12697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>559</v>
       </c>
@@ -12635,8 +12746,11 @@
       <c r="Q199" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>562</v>
       </c>
@@ -12680,7 +12794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>564</v>
       </c>
@@ -12733,7 +12847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>566</v>
       </c>
@@ -12777,7 +12891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>568</v>
       </c>
@@ -12821,7 +12935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>570</v>
       </c>
@@ -12871,7 +12985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>573</v>
       </c>
@@ -12915,7 +13029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>575</v>
       </c>
@@ -12959,7 +13073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>577</v>
       </c>
@@ -13009,7 +13123,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>582</v>
       </c>
@@ -13053,7 +13167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>584</v>
       </c>
@@ -13102,8 +13216,11 @@
       <c r="Q209" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>587</v>
       </c>
@@ -13153,7 +13270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>590</v>
       </c>
@@ -13197,7 +13314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>592</v>
       </c>
@@ -13246,8 +13363,11 @@
       <c r="Q212" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>595</v>
       </c>
@@ -13291,7 +13411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>598</v>
       </c>
@@ -13335,7 +13455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>600</v>
       </c>
@@ -13379,7 +13499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>603</v>
       </c>
@@ -13423,7 +13543,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>605</v>
       </c>
@@ -13472,8 +13592,11 @@
       <c r="Q217" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>608</v>
       </c>
@@ -13517,7 +13640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>610</v>
       </c>
@@ -13566,8 +13689,11 @@
       <c r="Q219" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>613</v>
       </c>
@@ -13616,8 +13742,11 @@
       <c r="Q220" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>615</v>
       </c>
@@ -13661,7 +13790,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>617</v>
       </c>
@@ -13710,8 +13839,11 @@
       <c r="Q222" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>619</v>
       </c>
@@ -13755,7 +13887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>622</v>
       </c>
@@ -13805,7 +13937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>625</v>
       </c>
@@ -13858,7 +13990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>628</v>
       </c>
@@ -13908,7 +14040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>630</v>
       </c>
@@ -13952,7 +14084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>632</v>
       </c>
@@ -14001,8 +14133,11 @@
       <c r="Q228" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>636</v>
       </c>
@@ -14046,7 +14181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>639</v>
       </c>
@@ -14090,7 +14225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>642</v>
       </c>
@@ -14134,7 +14269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>644</v>
       </c>
@@ -14178,7 +14313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>646</v>
       </c>
@@ -14222,7 +14357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>649</v>
       </c>
@@ -14266,7 +14401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>651</v>
       </c>
@@ -14315,8 +14450,11 @@
       <c r="Q235" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>655</v>
       </c>
@@ -14366,7 +14504,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>657</v>
       </c>
@@ -14410,7 +14548,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>659</v>
       </c>
@@ -14459,8 +14597,11 @@
       <c r="Q238" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>662</v>
       </c>
@@ -14513,7 +14654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>665</v>
       </c>
@@ -14557,7 +14698,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>667</v>
       </c>
@@ -14607,7 +14748,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>669</v>
       </c>
@@ -14651,7 +14792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>671</v>
       </c>
@@ -14695,7 +14836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>673</v>
       </c>
@@ -14745,7 +14886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>675</v>
       </c>
@@ -14789,7 +14930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>677</v>
       </c>
@@ -14842,7 +14983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>681</v>
       </c>
@@ -14891,8 +15032,11 @@
       <c r="Q247" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>684</v>
       </c>
@@ -14936,7 +15080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>686</v>
       </c>
@@ -14986,7 +15130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>688</v>
       </c>
@@ -15030,7 +15174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>690</v>
       </c>
@@ -15074,7 +15218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>692</v>
       </c>
@@ -15118,7 +15262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>694</v>
       </c>
@@ -15162,7 +15306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>696</v>
       </c>
@@ -15206,7 +15350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>698</v>
       </c>
@@ -15250,7 +15394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>700</v>
       </c>
@@ -15299,8 +15443,11 @@
       <c r="Q256" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>702</v>
       </c>
@@ -15344,7 +15491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>704</v>
       </c>
@@ -15388,7 +15535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>706</v>
       </c>
@@ -15432,7 +15579,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>708</v>
       </c>
@@ -15482,7 +15629,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>710</v>
       </c>
@@ -15531,8 +15678,11 @@
       <c r="Q261" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>714</v>
       </c>
@@ -15581,8 +15731,11 @@
       <c r="Q262" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>716</v>
       </c>
@@ -15626,7 +15779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>718</v>
       </c>
@@ -15670,7 +15823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>720</v>
       </c>
@@ -15714,7 +15867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>722</v>
       </c>
@@ -15763,8 +15916,11 @@
       <c r="Q266" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>726</v>
       </c>
@@ -15813,8 +15969,11 @@
       <c r="Q267" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>728</v>
       </c>
@@ -15858,7 +16017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>730</v>
       </c>
@@ -15908,7 +16067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>732</v>
       </c>
@@ -15952,7 +16111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>734</v>
       </c>
@@ -16001,8 +16160,11 @@
       <c r="Q271" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>736</v>
       </c>
@@ -16051,8 +16213,11 @@
       <c r="Q272" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>739</v>
       </c>
@@ -16102,7 +16267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>742</v>
       </c>
@@ -16146,7 +16311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>744</v>
       </c>
@@ -16190,7 +16355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>746</v>
       </c>
@@ -16234,7 +16399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>748</v>
       </c>
@@ -16283,8 +16448,11 @@
       <c r="Q277" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R277" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>750</v>
       </c>
@@ -16328,7 +16496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>752</v>
       </c>
@@ -16372,7 +16540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>754</v>
       </c>
@@ -16421,8 +16589,11 @@
       <c r="Q280" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R280" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>757</v>
       </c>
@@ -16466,7 +16637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>759</v>
       </c>
@@ -16510,7 +16681,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>762</v>
       </c>
@@ -16554,7 +16725,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>766</v>
       </c>
@@ -16598,7 +16769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>768</v>
       </c>
@@ -16647,8 +16818,11 @@
       <c r="Q285" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>770</v>
       </c>
@@ -16692,7 +16866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>773</v>
       </c>
@@ -16742,7 +16916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>776</v>
       </c>
@@ -16786,7 +16960,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>778</v>
       </c>
@@ -16835,8 +17009,11 @@
       <c r="Q289" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>782</v>
       </c>
@@ -16880,7 +17057,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>785</v>
       </c>
@@ -16930,7 +17107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>789</v>
       </c>
@@ -16974,7 +17151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>791</v>
       </c>
@@ -17018,7 +17195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>793</v>
       </c>
@@ -17071,7 +17248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>796</v>
       </c>
@@ -17121,7 +17298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>798</v>
       </c>
@@ -17170,8 +17347,11 @@
       <c r="Q296" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>800</v>
       </c>
@@ -17224,7 +17404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>803</v>
       </c>
@@ -17268,7 +17448,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>805</v>
       </c>
@@ -17312,7 +17492,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>807</v>
       </c>
@@ -17356,7 +17536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>809</v>
       </c>
@@ -17405,8 +17585,11 @@
       <c r="Q301" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>812</v>
       </c>
@@ -17450,7 +17633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>814</v>
       </c>
@@ -17494,7 +17677,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>816</v>
       </c>
@@ -17538,7 +17721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>818</v>
       </c>
@@ -17587,8 +17770,11 @@
       <c r="Q305" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>822</v>
       </c>
@@ -17632,7 +17818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>824</v>
       </c>
@@ -17682,7 +17868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>826</v>
       </c>
@@ -17731,8 +17917,11 @@
       <c r="Q308" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R308" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>828</v>
       </c>
@@ -17782,7 +17971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>830</v>
       </c>
@@ -17826,7 +18015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>832</v>
       </c>
@@ -17876,7 +18065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>835</v>
       </c>
@@ -17920,7 +18109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>838</v>
       </c>
@@ -17969,8 +18158,11 @@
       <c r="Q313" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>840</v>
       </c>
@@ -18014,7 +18206,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>844</v>
       </c>
@@ -18064,7 +18256,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>846</v>
       </c>
@@ -18108,7 +18300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>848</v>
       </c>
@@ -18157,8 +18349,11 @@
       <c r="Q317" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>850</v>
       </c>
@@ -18202,7 +18397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>852</v>
       </c>
@@ -18251,8 +18446,11 @@
       <c r="Q319" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>854</v>
       </c>
@@ -18300,6 +18498,9 @@
       </c>
       <c r="Q320" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="R320" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.2">
